--- a/StiffChecker/TestBook.xlsx
+++ b/StiffChecker/TestBook.xlsx
@@ -4,15 +4,84 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="20415" windowHeight="14085" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="20415" windowHeight="14085"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="First" sheetId="3" r:id="rId1"/>
+    <sheet name="Second" sheetId="1" r:id="rId2"/>
+    <sheet name="Third" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Zoom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Grid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pos</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>First</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2,2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Second</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6,7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Third</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PageBreak</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3,10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -42,12 +111,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +139,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -362,15 +440,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="E3:G7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="5:7">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7">
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7">
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7">
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -378,34 +566,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="B6:D10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
